--- a/data/trans_dic/P21B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,38; 76,14</t>
+          <t>64,11; 76,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,02; 70,27</t>
+          <t>57,9; 70,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,08; 78,38</t>
+          <t>63,4; 78,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,48; 84,3</t>
+          <t>68,74; 83,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,4; 75,35</t>
+          <t>65,09; 75,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,47; 72,95</t>
+          <t>63,4; 72,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,96; 79,81</t>
+          <t>67,75; 79,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,68; 83,99</t>
+          <t>75,73; 84,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,92; 73,72</t>
+          <t>65,8; 74,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62,6; 70,4</t>
+          <t>62,37; 70,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>67,49; 77,29</t>
+          <t>67,81; 77,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,32; 83,01</t>
+          <t>75,61; 82,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,48; 79,38</t>
+          <t>68,07; 78,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,26; 69,45</t>
+          <t>59,15; 69,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,22; 71,15</t>
+          <t>60,62; 71,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,94; 78,63</t>
+          <t>67,99; 78,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,29; 71,45</t>
+          <t>61,59; 71,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,82; 67,59</t>
+          <t>58,25; 68,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,52; 68,14</t>
+          <t>57,89; 67,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,39; 86,93</t>
+          <t>70,04; 87,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 73,19</t>
+          <t>65,67; 72,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,16; 67,02</t>
+          <t>60,29; 67,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,85; 67,95</t>
+          <t>60,53; 67,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,32; 82,81</t>
+          <t>71,31; 83,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,01; 73,87</t>
+          <t>50,43; 72,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,6; 57,29</t>
+          <t>34,2; 58,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,39; 77,73</t>
+          <t>55,42; 77,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,34; 73,34</t>
+          <t>54,11; 73,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,6; 81,04</t>
+          <t>63,6; 80,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,74; 76,79</t>
+          <t>57,1; 75,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,7; 66,59</t>
+          <t>49,56; 67,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,52; 67,19</t>
+          <t>52,66; 67,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,34; 74,78</t>
+          <t>61,39; 75,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,57; 65,97</t>
+          <t>51,33; 66,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,64; 68,65</t>
+          <t>55,04; 68,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,42; 67,45</t>
+          <t>56,2; 67,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,95; 74,77</t>
+          <t>66,91; 74,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,65; 66,26</t>
+          <t>58,56; 66,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,36; 71,44</t>
+          <t>63,47; 71,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,66; 76,06</t>
+          <t>68,38; 76,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,36; 71,86</t>
+          <t>65,79; 72,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,67; 68,57</t>
+          <t>62,6; 68,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,73; 68,87</t>
+          <t>61,6; 69,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,75; 83,94</t>
+          <t>70,68; 82,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,42; 72,21</t>
+          <t>67,05; 72,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,85; 66,7</t>
+          <t>61,9; 66,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63,41; 68,82</t>
+          <t>63,37; 68,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,99; 79,64</t>
+          <t>71,04; 79,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,11; 76,61</t>
+          <t>63,69; 76,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,9; 70,55</t>
+          <t>57,82; 69,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,4; 78,89</t>
+          <t>62,55; 77,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,09; 75,16</t>
+          <t>65,3; 74,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,4; 72,46</t>
+          <t>63,25; 72,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,75; 79,46</t>
+          <t>67,25; 80,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,8; 74,0</t>
+          <t>66,58; 74,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62,37; 70,6</t>
+          <t>62,98; 70,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>67,81; 77,4</t>
+          <t>67,9; 77,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,07; 78,94</t>
+          <t>67,96; 78,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,15; 69,25</t>
+          <t>58,42; 68,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,62; 71,27</t>
+          <t>60,3; 71,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,59; 71,16</t>
+          <t>61,91; 71,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,25; 68,1</t>
+          <t>58,27; 67,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,89; 67,68</t>
+          <t>57,58; 67,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 72,89</t>
+          <t>65,83; 73,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,29; 67,33</t>
+          <t>60,2; 67,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,53; 67,54</t>
+          <t>60,66; 67,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,43; 72,94</t>
+          <t>50,19; 73,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,2; 58,34</t>
+          <t>34,0; 57,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,42; 77,87</t>
+          <t>55,53; 78,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,6; 80,91</t>
+          <t>63,2; 80,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,1; 75,22</t>
+          <t>57,57; 74,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,56; 67,06</t>
+          <t>50,35; 67,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,39; 75,16</t>
+          <t>61,36; 75,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>51,33; 66,25</t>
+          <t>51,64; 66,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,04; 68,59</t>
+          <t>54,12; 68,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,91; 74,49</t>
+          <t>66,42; 74,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,56; 66,29</t>
+          <t>58,26; 66,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,47; 71,42</t>
+          <t>62,98; 71,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,79; 72,15</t>
+          <t>65,68; 72,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,6; 68,83</t>
+          <t>62,14; 68,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,6; 69,0</t>
+          <t>61,34; 68,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,05; 72,06</t>
+          <t>67,17; 72,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,9; 66,63</t>
+          <t>61,78; 66,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63,37; 68,76</t>
+          <t>63,48; 68,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
